--- a/排序算法.xlsx
+++ b/排序算法.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420" activeTab="1"/>
+    <workbookView windowWidth="14124" windowHeight="8915"/>
   </bookViews>
   <sheets>
     <sheet name="冒泡排序" sheetId="1" r:id="rId1"/>
@@ -15,12 +15,26 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>冒泡排序法</t>
+  </si>
+  <si>
+    <t>选择排序法</t>
+  </si>
+  <si>
+    <t>插入排序法</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
@@ -40,7 +54,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="1" tint="0.05"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -49,7 +77,30 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -78,21 +129,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -100,14 +144,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -121,43 +173,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -174,9 +189,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -199,7 +213,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -211,37 +333,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -253,139 +393,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,6 +443,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -440,20 +469,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,23 +494,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -516,152 +530,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -671,7 +685,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1022,159 +1042,232 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9.64814814814815" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="3">
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3">
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="3">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="E2" s="3">
+        <v>7</v>
+      </c>
+      <c r="F2" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="D1" s="3">
+      <c r="B4" s="3">
+        <v>5</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>7</v>
+      </c>
+      <c r="E4" s="3">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="3">
         <v>3</v>
-      </c>
-      <c r="E1" s="3">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3">
-        <v>5</v>
-      </c>
-      <c r="G1" s="3">
-        <v>0</v>
-      </c>
-      <c r="H1" s="3">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3">
-        <v>6</v>
-      </c>
-      <c r="J1" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="3">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3">
-        <v>1</v>
-      </c>
-      <c r="C3" s="3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="3">
-        <v>3</v>
-      </c>
-      <c r="E3" s="3">
-        <v>4</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>5</v>
-      </c>
-      <c r="H3" s="3">
-        <v>5</v>
-      </c>
-      <c r="I3" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="3">
-        <v>0</v>
       </c>
       <c r="B5" s="3">
         <v>1</v>
       </c>
       <c r="C5" s="3">
+        <v>5</v>
+      </c>
+      <c r="D5" s="3">
+        <v>2</v>
+      </c>
+      <c r="E5" s="3">
+        <v>7</v>
+      </c>
+      <c r="F5" s="3"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="3">
+        <v>1</v>
+      </c>
+      <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="3">
-        <v>3</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>4</v>
-      </c>
-      <c r="G5" s="3">
-        <v>5</v>
-      </c>
-      <c r="H5" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3">
+        <v>5</v>
+      </c>
+      <c r="E6" s="3"/>
+      <c r="F6" s="3"/>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B7" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="3">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
         <v>3</v>
       </c>
-      <c r="F7" s="3">
-        <v>4</v>
-      </c>
-      <c r="G7" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="3">
-        <v>0</v>
-      </c>
-      <c r="B9" s="3">
+      <c r="C11" s="3">
+        <v>8</v>
+      </c>
+      <c r="D11" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
+      <c r="E11" s="3">
+        <v>7</v>
+      </c>
+      <c r="F11" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="4">
+        <v>1</v>
+      </c>
+      <c r="B12" s="3">
         <v>3</v>
       </c>
-      <c r="E9" s="3">
+      <c r="C12" s="3">
+        <v>8</v>
+      </c>
+      <c r="D12" s="3">
+        <v>5</v>
+      </c>
+      <c r="E12" s="3">
+        <v>7</v>
+      </c>
+      <c r="F12" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="3"/>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="3">
+        <v>8</v>
+      </c>
+      <c r="D13" s="3">
+        <v>5</v>
+      </c>
+      <c r="E13" s="3">
+        <v>7</v>
+      </c>
+      <c r="F13" s="3">
         <v>3</v>
       </c>
-      <c r="F9" s="3">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="3">
-        <v>0</v>
-      </c>
-      <c r="B11" s="3">
-        <v>0</v>
-      </c>
-      <c r="C11" s="3">
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="3">
+        <v>5</v>
+      </c>
+      <c r="B21" s="3">
+        <v>3</v>
+      </c>
+      <c r="C21" s="3">
+        <v>8</v>
+      </c>
+      <c r="D21" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E21" s="3">
+        <v>7</v>
+      </c>
+      <c r="F21" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="3">
+        <v>1</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="3">
         <v>3</v>
       </c>
-      <c r="E11" s="3">
-        <v>3</v>
+      <c r="D23" s="3">
+        <v>5</v>
+      </c>
+      <c r="E23" s="3">
+        <v>7</v>
+      </c>
+      <c r="F23" s="3">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1189,8 +1282,8 @@
   <sheetPr/>
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView zoomScale="205" zoomScaleNormal="205" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
